--- a/client/src/database/datasetExcel.xlsx
+++ b/client/src/database/datasetExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilan.brunfman/Documents/Git/Projects/portfolio/client/src/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D72141A-A725-2A45-B960-89A6FD93C851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C3AC4-323D-5B4A-AC79-EC5AC0210FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40860" yWindow="3480" windowWidth="28040" windowHeight="17440" xr2:uid="{731B81FF-9A47-EE42-954B-D6D60B588767}"/>
+    <workbookView xWindow="52520" yWindow="3640" windowWidth="28040" windowHeight="17440" xr2:uid="{731B81FF-9A47-EE42-954B-D6D60B588767}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,36 @@
   </si>
   <si>
     <t>Kansas City</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>Alabama</t>
   </si>
 </sst>
 </file>
@@ -443,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9F0063-88B0-A244-8706-5E7725F6F128}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +494,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -478,8 +511,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -492,8 +528,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -505,6 +544,60 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
